--- a/medicine/Mort/Éloge_funèbre/Éloge_funèbre.xlsx
+++ b/medicine/Mort/Éloge_funèbre/Éloge_funèbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89loge_fun%C3%A8bre</t>
+          <t>Éloge_funèbre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un éloge funèbre ou oraison funèbre, est un discours généralement public prononcé à la mémoire d'une personne décédée, généralement lors de son enterrement ou d'une cérémonie de commémoration. 
-À l'Académie française, la tradition veut qu'un nouvel élu prononce l'éloge de son prédécesseur dans son discours de réception[1].
+À l'Académie française, la tradition veut qu'un nouvel élu prononce l'éloge de son prédécesseur dans son discours de réception.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89loge_fun%C3%A8bre</t>
+          <t>Éloge_funèbre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Antiquité
-Éloge funèbre de Périclès pour les soldats athéniens morts pendant la première année de la guerre du Péloponnèse ;
-Éloge funèbre d'Hypéride pour les morts de la guerre lamiaque (323)[2] ;
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Éloge funèbre de Périclès pour les soldats athéniens morts pendant la première année de la guerre du Péloponnèse ;
+Éloge funèbre d'Hypéride pour les morts de la guerre lamiaque (323) ;
 Éloge pour Basile de Césarée, par Grégoire de Nysse ;
-Laudatio Turiae, éloge funèbre d'une matrone romaine de la deuxième moitié du Ier siècle av. J.-C., conservé par une inscription ;
-XVe et XVIe siècles
-Éloge funèbre (fictif) de Marc-Antoine  pour Jules César, dans le Jules César de Shakespeare ;
+Laudatio Turiae, éloge funèbre d'une matrone romaine de la deuxième moitié du Ier siècle av. J.-C., conservé par une inscription ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éloge_funèbre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89loge_fun%C3%A8bre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples d'éloges funèbres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XVe et XVIe siècles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Éloge funèbre (fictif) de Marc-Antoine  pour Jules César, dans le Jules César de Shakespeare ;
 Oraisons funèbres de Jacques-Bénigne Bossuet :
 Oraison funèbre de Henriette-Marie de France (1669),
 Oraison funèbre de Henriette-Anne d'Angleterre (1670),
-Oraison funèbre du Grand Condé (1687) ;
-XIXe et XXe siècles
-Gettysburg Address d'Abraham Lincoln (1863) ;
+Oraison funèbre du Grand Condé (1687) ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éloge_funèbre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89loge_fun%C3%A8bre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples d'éloges funèbres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XIXe et XXe siècles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gettysburg Address d'Abraham Lincoln (1863) ;
 Discours d'André Malraux à l'occasion du transfert des cendres de Jean Moulin au Panthéon de Paris (1964) ainsi que ses sept autres éloges funèbres.</t>
         </is>
       </c>
